--- a/dummy_data.xlsx
+++ b/dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asusr\python\performance_reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924AFDF1-2893-4995-ADAE-645017125D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29630E1-9249-4DC4-91BE-DE571D1D89D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{C0BAF31E-2202-4E53-866C-51EB9F83C842}"/>
+    <workbookView xWindow="29190" yWindow="-2235" windowWidth="21600" windowHeight="11385" xr2:uid="{C0BAF31E-2202-4E53-866C-51EB9F83C842}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>fund_name</t>
   </si>
   <si>
-    <t>Fund X</t>
-  </si>
-  <si>
-    <t>Fund Y</t>
-  </si>
-  <si>
-    <t>Fund Z</t>
-  </si>
-  <si>
     <t>ref_code</t>
   </si>
   <si>
@@ -97,6 +88,108 @@
   </si>
   <si>
     <t>5yr_rtn_rel</t>
+  </si>
+  <si>
+    <t>amc4</t>
+  </si>
+  <si>
+    <t>amc5</t>
+  </si>
+  <si>
+    <t>amc6</t>
+  </si>
+  <si>
+    <t>amc7</t>
+  </si>
+  <si>
+    <t>amc8</t>
+  </si>
+  <si>
+    <t>amc9</t>
+  </si>
+  <si>
+    <t>amc10</t>
+  </si>
+  <si>
+    <t>amc11</t>
+  </si>
+  <si>
+    <t>amc12</t>
+  </si>
+  <si>
+    <t>amc13</t>
+  </si>
+  <si>
+    <t>Fund X1</t>
+  </si>
+  <si>
+    <t>Fund Y2</t>
+  </si>
+  <si>
+    <t>Fund X2</t>
+  </si>
+  <si>
+    <t>Fund Y3</t>
+  </si>
+  <si>
+    <t>Fund X3</t>
+  </si>
+  <si>
+    <t>Fund Y4</t>
+  </si>
+  <si>
+    <t>Fund X4</t>
+  </si>
+  <si>
+    <t>Fund Y5</t>
+  </si>
+  <si>
+    <t>Fund X5</t>
+  </si>
+  <si>
+    <t>Fund Y6</t>
+  </si>
+  <si>
+    <t>Fund X6</t>
+  </si>
+  <si>
+    <t>Fund Y7</t>
+  </si>
+  <si>
+    <t>Fund X7</t>
+  </si>
+  <si>
+    <t>Fund Y8</t>
+  </si>
+  <si>
+    <t>amc14</t>
+  </si>
+  <si>
+    <t>50% US Equity Index; 25% UK Equity 25% Global Bond</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Enhanced Index</t>
+  </si>
+  <si>
+    <t>asset_type</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Multi-Asset</t>
+  </si>
+  <si>
+    <t>Rates</t>
   </si>
 </sst>
 </file>
@@ -106,7 +199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +218,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -472,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0100D758-A5F4-468D-8D86-1BD1ADAB7F08}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,245 +579,987 @@
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:G15" ca="1" si="0">RANDBETWEEN(1,10)/100</f>
+        <v>0.04</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="H2" s="2">
+        <f ca="1">(1+F2)/(1+G2)-1</f>
+        <v>1.9607843137254832E-2</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:J15" ca="1" si="1">RANDBETWEEN(1,10)/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="K2" s="2">
+        <f ca="1">(1+I2)/(1+J2)-1</f>
+        <v>5.7692307692307709E-2</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" ref="L2:M15" ca="1" si="2">RANDBETWEEN(1,10)/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="M2" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="N2" s="2">
+        <f ca="1">(1+L2)/(1+M2)-1</f>
+        <v>9.1743119266054496E-3</v>
+      </c>
+      <c r="O2" s="2">
+        <f t="shared" ref="O2:P15" ca="1" si="3">RANDBETWEEN(1,10)/100</f>
+        <v>0.02</v>
+      </c>
+      <c r="P2" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="Q2" s="2">
+        <f ca="1">(1+O2)/(1+P2)-1</f>
+        <v>-6.4220183486238591E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <f ca="1">(1+F3)/(1+G3)-1</f>
+        <v>-5.6074766355140193E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="K3" s="2">
+        <f ca="1">(1+I3)/(1+J3)-1</f>
+        <v>1.980198019801982E-2</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="N3" s="2">
+        <f ca="1">(1+L3)/(1+M3)-1</f>
+        <v>-4.629629629629628E-2</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="Q3" s="2">
+        <f ca="1">(1+O3)/(1+P3)-1</f>
+        <v>-6.4814814814814881E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="H4" s="2">
+        <f ca="1">(1+F4)/(1+G4)-1</f>
+        <v>9.4339622641510523E-3</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="K4" s="2">
+        <f ca="1">(1+I4)/(1+J4)-1</f>
+        <v>-9.1743119266055606E-3</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="N4" s="2">
+        <f ca="1">(1+L4)/(1+M4)-1</f>
+        <v>-1.9230769230769273E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="Q4" s="2">
+        <f ca="1">(1+O4)/(1+P4)-1</f>
+        <v>-9.2592592592593004E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="H5" s="2">
+        <f ca="1">(1+F5)/(1+G5)-1</f>
+        <v>9.1743119266054496E-3</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="K5" s="2">
+        <f ca="1">(1+I5)/(1+J5)-1</f>
+        <v>-9.8039215686274161E-3</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="N5" s="2">
+        <f ca="1">(1+L5)/(1+M5)-1</f>
+        <v>9.9009900990099098E-3</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q5" s="2">
+        <f ca="1">(1+O5)/(1+P5)-1</f>
+        <v>-4.6728971962616828E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="H6" s="2">
+        <f ca="1">(1+F6)/(1+G6)-1</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="K6" s="2">
+        <f ca="1">(1+I6)/(1+J6)-1</f>
+        <v>1.904761904761898E-2</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="N6" s="2">
+        <f ca="1">(1+L6)/(1+M6)-1</f>
+        <v>1.8867924528301883E-2</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q6" s="2">
+        <f ca="1">(1+O6)/(1+P6)-1</f>
+        <v>-1.9047619047619091E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <f ca="1">(1+F7)/(1+G7)-1</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="K7" s="2">
+        <f ca="1">(1+I7)/(1+J7)-1</f>
+        <v>-3.8095238095238182E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="N7" s="2">
+        <f ca="1">(1+L7)/(1+M7)-1</f>
+        <v>8.9108910891089188E-2</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="Q7" s="2">
+        <f ca="1">(1+O7)/(1+P7)-1</f>
+        <v>2.9126213592232997E-2</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <f ca="1">(1+F8)/(1+G8)-1</f>
+        <v>2.8037383177570208E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="K8" s="2">
+        <f ca="1">(1+I8)/(1+J8)-1</f>
+        <v>4.8076923076923128E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N8" s="2">
+        <f ca="1">(1+L8)/(1+M8)-1</f>
+        <v>-5.6074766355140193E-2</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="Q8" s="2">
+        <f ca="1">(1+O8)/(1+P8)-1</f>
+        <v>-9.2592592592593004E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="E2" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
+      <c r="G9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="H9" s="2">
+        <f ca="1">(1+F9)/(1+G9)-1</f>
+        <v>-1.9230769230769273E-2</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="2">
+        <f ca="1">(1+I9)/(1+J9)-1</f>
+        <v>-2.7272727272727337E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="N9" s="2">
+        <f ca="1">(1+L9)/(1+M9)-1</f>
+        <v>1.9417475728155331E-2</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q9" s="2">
+        <f ca="1">(1+O9)/(1+P9)-1</f>
+        <v>2.8037383177570208E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="2">
+        <f ca="1">(1+F10)/(1+G10)-1</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="K10" s="2">
+        <f ca="1">(1+I10)/(1+J10)-1</f>
+        <v>-2.7522935779816571E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="N10" s="2">
+        <f ca="1">(1+L10)/(1+M10)-1</f>
+        <v>2.9126213592232997E-2</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q10" s="2">
+        <f ca="1">(1+O10)/(1+P10)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <f ca="1">(1+F11)/(1+G11)-1</f>
+        <v>-3.7383177570093462E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="K11" s="2">
+        <f ca="1">(1+I11)/(1+J11)-1</f>
+        <v>-5.5045871559633031E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="N11" s="2">
+        <f ca="1">(1+L11)/(1+M11)-1</f>
+        <v>3.8095238095238182E-2</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" ca="1" si="3"/>
         <v>0.02</v>
       </c>
-      <c r="F2" s="2">
-        <f ca="1">(1+D2)/(1+E2)-1</f>
+      <c r="P11" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="Q11" s="2">
+        <f ca="1">(1+O11)/(1+P11)-1</f>
+        <v>-3.7735849056603765E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="H12" s="2">
+        <f ca="1">(1+F12)/(1+G12)-1</f>
+        <v>-3.7735849056603765E-2</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="K12" s="2">
+        <f ca="1">(1+I12)/(1+J12)-1</f>
+        <v>-9.2592592592593004E-3</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="N12" s="2">
+        <f ca="1">(1+L12)/(1+M12)-1</f>
         <v>0</v>
       </c>
-      <c r="G2" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
+      <c r="O12" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="2">
+        <f ca="1">(1+O12)/(1+P12)-1</f>
+        <v>-7.2727272727272751E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="H13" s="2">
+        <f ca="1">(1+F13)/(1+G13)-1</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="H2" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
+      <c r="J13" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="K13" s="2">
+        <f ca="1">(1+I13)/(1+J13)-1</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="I2" s="2">
-        <f ca="1">(1+G2)/(1+H2)-1</f>
-        <v>-9.6153846153845812E-3</v>
-      </c>
-      <c r="J2" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
+      <c r="M13" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N13" s="2">
+        <f ca="1">(1+L13)/(1+M13)-1</f>
+        <v>-2.8037383177570097E-2</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="Q13" s="2">
+        <f ca="1">(1+O13)/(1+P13)-1</f>
+        <v>1.9607843137254832E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="H14" s="2">
+        <f ca="1">(1+F14)/(1+G14)-1</f>
+        <v>-6.4220183486238591E-2</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="K14" s="2">
+        <f ca="1">(1+I14)/(1+J14)-1</f>
+        <v>9.4339622641510523E-3</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N14" s="2">
+        <f ca="1">(1+L14)/(1+M14)-1</f>
+        <v>-4.6728971962616828E-2</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q14" s="2">
+        <f ca="1">(1+O14)/(1+P14)-1</f>
+        <v>-9.0909090909091494E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="H15" s="2">
+        <f ca="1">(1+F15)/(1+G15)-1</f>
+        <v>-6.4220183486238591E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="K2" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>0.04</v>
-      </c>
-      <c r="L2" s="2">
-        <f ca="1">(1+J2)/(1+K2)-1</f>
-        <v>9.6153846153845812E-3</v>
-      </c>
-      <c r="M2" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>0.02</v>
-      </c>
-      <c r="N2" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>0.03</v>
-      </c>
-      <c r="O2" s="2">
-        <f ca="1">(1+M2)/(1+N2)-1</f>
-        <v>-9.7087378640776656E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
+      <c r="J15" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="K15" s="2">
+        <f ca="1">(1+I15)/(1+J15)-1</f>
+        <v>-9.4339622641509413E-3</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="N15" s="2">
+        <f ca="1">(1+L15)/(1+M15)-1</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" ca="1" si="3"/>
         <v>0.09</v>
       </c>
-      <c r="E3" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="2">
-        <f ca="1">(1+D3)/(1+E3)-1</f>
-        <v>3.8095238095238182E-2</v>
-      </c>
-      <c r="G3" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H3" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>0.01</v>
-      </c>
-      <c r="I3" s="2">
-        <f ca="1">(1+G3)/(1+H3)-1</f>
-        <v>5.9405940594059459E-2</v>
-      </c>
-      <c r="J3" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>0.08</v>
-      </c>
-      <c r="K3" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>0.09</v>
-      </c>
-      <c r="L3" s="2">
-        <f ca="1">(1+J3)/(1+K3)-1</f>
-        <v>-9.1743119266055606E-3</v>
-      </c>
-      <c r="M3" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>0.04</v>
-      </c>
-      <c r="N3" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O3" s="2">
-        <f ca="1">(1+M3)/(1+N3)-1</f>
-        <v>-2.8037383177570097E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>0.08</v>
-      </c>
-      <c r="F4" s="2">
-        <f ca="1">(1+D4)/(1+E4)-1</f>
-        <v>1.8518518518518601E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>0.04</v>
-      </c>
-      <c r="H4" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>0.08</v>
-      </c>
-      <c r="I4" s="2">
-        <f ca="1">(1+G4)/(1+H4)-1</f>
-        <v>-3.703703703703709E-2</v>
-      </c>
-      <c r="J4" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>0.05</v>
-      </c>
-      <c r="K4" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>0.01</v>
-      </c>
-      <c r="L4" s="2">
-        <f ca="1">(1+J4)/(1+K4)-1</f>
-        <v>3.9603960396039639E-2</v>
-      </c>
-      <c r="M4" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>0.04</v>
-      </c>
-      <c r="N4" s="2">
-        <f ca="1">RANDBETWEEN(1,10)/100</f>
-        <v>0.05</v>
-      </c>
-      <c r="O4" s="2">
-        <f ca="1">(1+M4)/(1+N4)-1</f>
-        <v>-9.52380952380949E-3</v>
+      <c r="Q15" s="2">
+        <f ca="1">(1+O15)/(1+P15)-1</f>
+        <v>-7.3394495412844152E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>